--- a/tests/data/testdata/data_resource_demo.xlsx
+++ b/tests/data/testdata/data_resource_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthijs/Projecten/haplotypering/source/haplotyping/tests/data/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2068BC2-FB48-0148-AE30-BF774A053957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA9121-8424-BC4B-A151-0B1006FBB6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>label</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>accession</t>
   </si>
 </sst>
 </file>
@@ -532,18 +535,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,48 +554,51 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -690,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
